--- a/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-observation-microbiology.xlsx
@@ -5031,7 +5031,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>94</v>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>94</v>
